--- a/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>16,680.70</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16,315.70</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16,593.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16,481.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>16,895.80</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>16,481.30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16,593.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>16,315.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16,680.70</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>16895.8</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>16315.7</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>16593.34</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>16,680.70</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16,315.70</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16,593.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16,481.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>16,895.80</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16,481.30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16,593.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>16,315.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16,680.70</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>16895.8</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>16315.7</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>16593.34</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>67.50</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>55.40</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>47.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>49.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>74.90</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>59.02</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-1.50</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-3.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>-10.10</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-3.90</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-1.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-10.1</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>3.44</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>9,642.70</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9,317.50</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9,593.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9,199.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>9,503.60</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>9,199.80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9,593.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9,317.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9,642.70</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>9642.700000000001</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>9199.799999999999</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>9451.460000000001</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>370.80</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>370.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>374.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>366.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>359.50</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>366.30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>374.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>370.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>370.80</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>374.3</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>368.18</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>4,208.10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4,167.20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4,040.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4,037.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>4,072.50</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4,037.40</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4,040.80</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4,167.20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4,208.10</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>4208.1</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>4037.4</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>4105.2</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2,369.60</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,412.90</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,518.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,826.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2,902.80</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2,826.30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,518.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2,412.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2,369.60</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>2902.8</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2369.6</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>2606.04</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>684.40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>593.40</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,032.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>665.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,046.10</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>665.50</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,032.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>593.40</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>684.40</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1046.1</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>593.4</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>804.3399999999999</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,054.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,006.30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,550.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,491.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,948.90</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3,491.80</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,550.90</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,006.30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,054.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3948.9</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>3006.3</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3410.38</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>205.90</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>202.80</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>206.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>210.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>240.80</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>210.90</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>206.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>202.80</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>205.90</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>240.8</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>213.3</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,848.10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2,803.50</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,344.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,280.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,708.10</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,280.90</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,344.80</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2,803.50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,848.10</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3708.1</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2803.5</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3197.08</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2,848.10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2,803.50</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,344.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,280.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,708.10</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,280.90</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,344.80</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2,803.50</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2,848.10</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3708.1</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2803.5</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3197.08</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>786.80</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>780.60</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>898.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>906.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>994.60</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>906.30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>898.20</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>780.60</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>786.80</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>994.6</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>780.6</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>873.3</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,061.30</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,022.90</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,446.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,374.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,713.50</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,374.60</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,446.60</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,022.90</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,061.30</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2713.5</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2022.9</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2323.78</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2,061.30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,022.90</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,446.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,374.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2,713.50</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2,374.60</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,446.60</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,022.90</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2,061.30</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2713.5</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>2022.9</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2323.78</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,044.40</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,044.80</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,045.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,046.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,046.30</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,046.00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,045.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1,044.80</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,044.40</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1046.3</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1044.4</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1045.3</v>
       </c>
     </row>
     <row r="21"/>
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>5.19</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>4.446</v>
       </c>
     </row>
     <row r="24">
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>5.18</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>4.436</v>
       </c>
     </row>
     <row r="25"/>
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>5.19</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>4.446</v>
       </c>
     </row>
     <row r="28">
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>5.18</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>4.436</v>
       </c>
     </row>
     <row r="29"/>
